--- a/zepp_test_command_list_tag0.9.xlsx
+++ b/zepp_test_command_list_tag0.9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -941,21 +941,9 @@
     <t>check audio serve and exit when it ready.</t>
   </si>
   <si>
-    <t>nohup ./spdif_on.sh &amp;</t>
-  </si>
-  <si>
-    <t>adb shell nohup /etc/factory-test/zepp/spdif_on.sh &amp;</t>
-  </si>
-  <si>
     <t>en_ftm.sh</t>
   </si>
   <si>
-    <t>nohup ./en_ftm.sh &amp;</t>
-  </si>
-  <si>
-    <t>adb shell nohup /etc/factory-test/zepp/en_ftm.sh &amp;</t>
-  </si>
-  <si>
     <t>enter Wifi/BT ftm mode</t>
   </si>
   <si>
@@ -969,6 +957,18 @@
   </si>
   <si>
     <t>adb shell /etc/factory-test/zepp/dis_ftm.sh</t>
+  </si>
+  <si>
+    <t>adb shell nohup "/etc/factory-test/zepp/spdif_on.sh &gt; /dev/null" &amp;</t>
+  </si>
+  <si>
+    <t>nohup "./en_ftm.sh &gt; /dev/null" &amp;</t>
+  </si>
+  <si>
+    <t>nohup "./spdif_on.sh &gt; /dev/null" &amp;</t>
+  </si>
+  <si>
+    <t>adb shell nohup "/etc/factory-test/zepp/en_ftm.sh &gt; /dev/null" &amp;</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,10 +2588,10 @@
         <v>218</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>261</v>
@@ -2653,16 +2653,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2670,16 +2670,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/zepp_test_command_list_tag0.9.xlsx
+++ b/zepp_test_command_list_tag0.9.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="291">
   <si>
     <t>No.</t>
   </si>
@@ -398,6 +398,477 @@
   </si>
   <si>
     <t>get PCBA version (board ID)</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/get_model.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/get_ntc.sh</t>
+  </si>
+  <si>
+    <t>get NTC value, will list all of the avilable NTC value.</t>
+  </si>
+  <si>
+    <t>current volume get from DSP and base on the define of volume.conf</t>
+  </si>
+  <si>
+    <t>Get software version</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/get_pa_fault.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/get_sw_version.sh</t>
+  </si>
+  <si>
+    <t>Get PA(Amplify) fault state</t>
+  </si>
+  <si>
+    <t>Get Wlan0 MAC address</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/get_unused0.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/get_unused1.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/get_volume.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/get_wlan0_mac_addr.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/get_wlan1_mac_addr.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/get_wlan2_mac_addr.sh</t>
+  </si>
+  <si>
+    <t>check I2C bus chip state, chips list defined at i2c.conf</t>
+  </si>
+  <si>
+    <t>Left tweeter enable</t>
+  </si>
+  <si>
+    <t>Left tweeter mute</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/inventory.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/LHF_enable.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/LHF_mute.sh</t>
+  </si>
+  <si>
+    <t>left MR enable</t>
+  </si>
+  <si>
+    <t>left MR mute</t>
+  </si>
+  <si>
+    <t>close mic loopback</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/LMF_enable.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/LMF_mute.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/loopback_close.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/loopback_mic.sh</t>
+  </si>
+  <si>
+    <t>loopback mic to speak</t>
+  </si>
+  <si>
+    <t>umute master audio.</t>
+  </si>
+  <si>
+    <t>muste master audio.</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/l_tone1_disable.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/l_tone1_enable.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/master_enable.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/master_mute.sh</t>
+  </si>
+  <si>
+    <t>./mic_record_close.sh &lt;number of time(S)&gt;</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/mic_record_close.sh 4</t>
+  </si>
+  <si>
+    <t>close audio record after record XX senconds.</t>
+  </si>
+  <si>
+    <t>start audio record, record files path: /data/factory-test/mic-4ch.wav</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">formal NVRAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> N/A</t>
+    </r>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/nvram_fs.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/RHF_enable.sh</t>
+  </si>
+  <si>
+    <t>./RHF_enable.sh</t>
+  </si>
+  <si>
+    <t>Right tweeter mute</t>
+  </si>
+  <si>
+    <t>Right tweeter enable</t>
+  </si>
+  <si>
+    <t>./RHF_mute.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/RHF_mute.sh</t>
+  </si>
+  <si>
+    <t>./RMF_enable.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/RMF_enable.sh</t>
+  </si>
+  <si>
+    <t>Right MR enable</t>
+  </si>
+  <si>
+    <t>Right MR mute</t>
+  </si>
+  <si>
+    <t>./set_assembly.sh  &lt;SN number&gt;</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/RMF_mute.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/r_tone1_disable.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/r_tone1_enable.sh</t>
+  </si>
+  <si>
+    <t>./RMF_mute.sh</t>
+  </si>
+  <si>
+    <t>./nvram_fs.sh</t>
+  </si>
+  <si>
+    <t>./r_tone1_disable.sh</t>
+  </si>
+  <si>
+    <t>./r_tone1_enable.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_assembly.sh  zepp-evt-1234</t>
+  </si>
+  <si>
+    <t>./set_base_mac_addr.sh &lt;mac addr&gt;</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_base_mac_addr.sh 00EFA134</t>
+  </si>
+  <si>
+    <t>./set_board_version.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_board_version.sh</t>
+  </si>
+  <si>
+    <t>set BT0  MAC address</t>
+  </si>
+  <si>
+    <t>./set_burn_in.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_burn_in.sh</t>
+  </si>
+  <si>
+    <t>set DUT to burn in test mode</t>
+  </si>
+  <si>
+    <t>set_country_code.sh</t>
+  </si>
+  <si>
+    <t>set_env.sh</t>
+  </si>
+  <si>
+    <t>set_eth0_mac_addr.sh</t>
+  </si>
+  <si>
+    <t>set_fp_part.sh</t>
+  </si>
+  <si>
+    <t>set_gpio.sh</t>
+  </si>
+  <si>
+    <t>set_led.sh</t>
+  </si>
+  <si>
+    <t>set_master_source.sh</t>
+  </si>
+  <si>
+    <t>set_model.sh</t>
+  </si>
+  <si>
+    <t>set_unused0.sh</t>
+  </si>
+  <si>
+    <t>set_unused1.sh</t>
+  </si>
+  <si>
+    <t>set_volume.sh</t>
+  </si>
+  <si>
+    <t>set_wlan0_mac_addr.sh</t>
+  </si>
+  <si>
+    <t>set_wlan1_mac_addr.sh</t>
+  </si>
+  <si>
+    <t>set_wlan2_mac_addr.sh</t>
+  </si>
+  <si>
+    <t>spdif_off.sh</t>
+  </si>
+  <si>
+    <t>spdif_on.sh</t>
+  </si>
+  <si>
+    <t>WF_enable.sh</t>
+  </si>
+  <si>
+    <t>WF_mute.sh</t>
+  </si>
+  <si>
+    <t>./set_country_code.sh &lt;country code&gt;</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_country_code.sh US</t>
+  </si>
+  <si>
+    <t>./set_env.sh</t>
+  </si>
+  <si>
+    <t>./spdif_off.sh</t>
+  </si>
+  <si>
+    <t>./WF_enable.sh</t>
+  </si>
+  <si>
+    <t>./WF_mute.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_env.sh</t>
+  </si>
+  <si>
+    <t>NO USE</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_eth0_mac_addr.sh b0672f292cac</t>
+  </si>
+  <si>
+    <t>./set_eth0_mac_addr.sh   XXXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>./set_bt0_mac_addr.sh XX:XX:XX:XX:XX:XX</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_bt0_mac_addr.sh b0:67:2f:29:2c:af</t>
+  </si>
+  <si>
+    <t>./set_wlan0_mac_addr.sh   XXXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>./set_wlan1_mac_addr.sh   XXXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>./set_wlan2_mac_addr.sh   XXXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_wlan0_mac_addr.sh b0672f292cac</t>
+  </si>
+  <si>
+    <t>set Wlan0 Mac address</t>
+  </si>
+  <si>
+    <t>./set_fp_part.sh &lt;FP part name&gt;</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_fp_part.sh  FP-1204</t>
+  </si>
+  <si>
+    <t>./set_gpio.sh &lt;gpio name&gt;  &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_gpio.sh  pa-mute  1</t>
+  </si>
+  <si>
+    <t>directly set GPIO, avilable GPIO define at gpio.conf</t>
+  </si>
+  <si>
+    <t>./set_led.sh &lt;led name&gt;  &lt;R&gt; &lt;G&gt; &lt;B&gt;</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_led.sh led-foot1  5 5 0</t>
+  </si>
+  <si>
+    <t>set LED by RGB brightness, avilable LED define at led.conf</t>
+  </si>
+  <si>
+    <t>./set_master_source.sh &lt;source name&gt;</t>
+  </si>
+  <si>
+    <t>./set_model.sh &lt;model name&gt;</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_master_source.sh soc</t>
+  </si>
+  <si>
+    <t>N/A   (soc /local/spdif) no function for DSP2.1</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_model.sh L-ZEP</t>
+  </si>
+  <si>
+    <t>./set_unused1.sh  XX:XX:XX:XX:XX:XX</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_unused0.sh b0:67:2f:29:2c:ad</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_unused1.sh b0:67:2f:29:2c:ad</t>
+  </si>
+  <si>
+    <t>./set_unused0.sh  XX:XX:XX:XX:XX:XX</t>
+  </si>
+  <si>
+    <t>./set_volume.sh &lt;volume step&gt;</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_volume.sh  2</t>
+  </si>
+  <si>
+    <t>set volume, volume step depand on volumen.conf</t>
+  </si>
+  <si>
+    <t>close spdif pipe play</t>
+  </si>
+  <si>
+    <t>spdif pipe play on</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/spdif_off.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/WF_enable.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/WF_mute.sh</t>
+  </si>
+  <si>
+    <t>Woofer enable</t>
+  </si>
+  <si>
+    <t>Woofer mute</t>
+  </si>
+  <si>
+    <t>check_audio_ready.sh</t>
+  </si>
+  <si>
+    <t>./mic_record.sh  &lt;record time in seconds&gt;</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/mic_record.sh   4</t>
+  </si>
+  <si>
+    <t>./check_audio_ready.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/check_audio_ready.sh</t>
+  </si>
+  <si>
+    <t>en_ftm.sh</t>
+  </si>
+  <si>
+    <t>enter Wifi/BT ftm mode</t>
+  </si>
+  <si>
+    <t>exit Wifi/BT ftm mode</t>
+  </si>
+  <si>
+    <t>dis_ftm.sh</t>
+  </si>
+  <si>
+    <t>./dis_ftm.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/dis_ftm.sh</t>
+  </si>
+  <si>
+    <t>adb shell nohup "/etc/factory-test/zepp/spdif_on.sh &gt; /dev/null" &amp;</t>
+  </si>
+  <si>
+    <t>nohup "./en_ftm.sh &gt; /dev/null" &amp;</t>
+  </si>
+  <si>
+    <t>nohup "./spdif_on.sh &gt; /dev/null" &amp;</t>
+  </si>
+  <si>
+    <t>adb shell nohup "/etc/factory-test/zepp/en_ftm.sh &gt; /dev/null" &amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set country code   </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">get model name </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">get  FP part </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">get Eth0 MAC addr </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>get country code, exp: "US/UK/CN..."</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">defined Bord version </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -407,586 +878,75 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(N/A  need NVRAM)</t>
+      <t/>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">defined Bord version </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(N/A  need NVRAM) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>get country code, exp: "US/UK/CN..."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(N/A  need NVRAM) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">get Eth0 MAC addr </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(N/A  need NVRAM)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">get  FP part </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(N/A  need NVRAM)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">get model name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(N/A  need NVRAM)</t>
-    </r>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/get_model.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/get_ntc.sh</t>
-  </si>
-  <si>
-    <t>get NTC value, will list all of the avilable NTC value.</t>
-  </si>
-  <si>
-    <t>current volume get from DSP and base on the define of volume.conf</t>
-  </si>
-  <si>
-    <t>Get software version</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/get_pa_fault.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/get_sw_version.sh</t>
-  </si>
-  <si>
-    <t>Get PA(Amplify) fault state</t>
-  </si>
-  <si>
-    <t>Get Wlan0 MAC address</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/get_unused0.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/get_unused1.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/get_volume.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/get_wlan0_mac_addr.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/get_wlan1_mac_addr.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/get_wlan2_mac_addr.sh</t>
-  </si>
-  <si>
-    <t>check I2C bus chip state, chips list defined at i2c.conf</t>
-  </si>
-  <si>
-    <t>Left tweeter enable</t>
-  </si>
-  <si>
-    <t>Left tweeter mute</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/inventory.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/LHF_enable.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/LHF_mute.sh</t>
-  </si>
-  <si>
-    <t>left MR enable</t>
-  </si>
-  <si>
-    <t>left MR mute</t>
-  </si>
-  <si>
-    <t>close mic loopback</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/LMF_enable.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/LMF_mute.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/loopback_close.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/loopback_mic.sh</t>
-  </si>
-  <si>
-    <t>loopback mic to speak</t>
-  </si>
-  <si>
-    <t>umute master audio.</t>
-  </si>
-  <si>
-    <t>muste master audio.</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/l_tone1_disable.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/l_tone1_enable.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/master_enable.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/master_mute.sh</t>
-  </si>
-  <si>
-    <t>./mic_record_close.sh &lt;number of time(S)&gt;</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/mic_record_close.sh 4</t>
-  </si>
-  <si>
-    <t>close audio record after record XX senconds.</t>
-  </si>
-  <si>
-    <t>start audio record, record files path: /data/factory-test/mic-4ch.wav</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">formal NVRAM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> N/A</t>
-    </r>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/nvram_fs.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/RHF_enable.sh</t>
-  </si>
-  <si>
-    <t>./RHF_enable.sh</t>
-  </si>
-  <si>
-    <t>Right tweeter mute</t>
-  </si>
-  <si>
-    <t>Right tweeter enable</t>
-  </si>
-  <si>
-    <t>./RHF_mute.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/RHF_mute.sh</t>
-  </si>
-  <si>
-    <t>./RMF_enable.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/RMF_enable.sh</t>
-  </si>
-  <si>
-    <t>Right MR enable</t>
-  </si>
-  <si>
-    <t>Right MR mute</t>
-  </si>
-  <si>
-    <t>./set_assembly.sh  &lt;SN number&gt;</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/RMF_mute.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/r_tone1_disable.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/r_tone1_enable.sh</t>
-  </si>
-  <si>
-    <t>./RMF_mute.sh</t>
-  </si>
-  <si>
-    <t>./nvram_fs.sh</t>
-  </si>
-  <si>
-    <t>./r_tone1_disable.sh</t>
-  </si>
-  <si>
-    <t>./r_tone1_enable.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_assembly.sh  zepp-evt-1234</t>
-  </si>
-  <si>
-    <t>set assembly NO.   (Set SN)</t>
-  </si>
-  <si>
-    <t>./set_base_mac_addr.sh &lt;mac addr&gt;</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_base_mac_addr.sh 00EFA134</t>
-  </si>
-  <si>
-    <t>./set_board_version.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_board_version.sh</t>
-  </si>
-  <si>
-    <t>set BT0  MAC address</t>
-  </si>
-  <si>
-    <t>./set_burn_in.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_burn_in.sh</t>
-  </si>
-  <si>
-    <t>set DUT to burn in test mode</t>
-  </si>
-  <si>
-    <t>set_country_code.sh</t>
-  </si>
-  <si>
-    <t>set_env.sh</t>
-  </si>
-  <si>
-    <t>set_eth0_mac_addr.sh</t>
-  </si>
-  <si>
-    <t>set_fp_part.sh</t>
-  </si>
-  <si>
-    <t>set_gpio.sh</t>
-  </si>
-  <si>
-    <t>set_led.sh</t>
-  </si>
-  <si>
-    <t>set_master_source.sh</t>
-  </si>
-  <si>
-    <t>set_model.sh</t>
-  </si>
-  <si>
-    <t>set_unused0.sh</t>
-  </si>
-  <si>
-    <t>set_unused1.sh</t>
-  </si>
-  <si>
-    <t>set_volume.sh</t>
-  </si>
-  <si>
-    <t>set_wlan0_mac_addr.sh</t>
-  </si>
-  <si>
-    <t>set_wlan1_mac_addr.sh</t>
-  </si>
-  <si>
-    <t>set_wlan2_mac_addr.sh</t>
-  </si>
-  <si>
-    <t>spdif_off.sh</t>
-  </si>
-  <si>
-    <t>spdif_on.sh</t>
-  </si>
-  <si>
-    <t>WF_enable.sh</t>
-  </si>
-  <si>
-    <t>WF_mute.sh</t>
-  </si>
-  <si>
-    <t>./set_country_code.sh &lt;country code&gt;</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_country_code.sh US</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">set country code   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N/A</t>
-    </r>
-  </si>
-  <si>
-    <t>./set_env.sh</t>
-  </si>
-  <si>
-    <t>./spdif_off.sh</t>
-  </si>
-  <si>
-    <t>./WF_enable.sh</t>
-  </si>
-  <si>
-    <t>./WF_mute.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_env.sh</t>
-  </si>
-  <si>
-    <t>NO USE</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_eth0_mac_addr.sh b0672f292cac</t>
-  </si>
-  <si>
-    <t>./set_eth0_mac_addr.sh   XXXXXXXXXXXX</t>
-  </si>
-  <si>
-    <t>./set_bt0_mac_addr.sh XX:XX:XX:XX:XX:XX</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_bt0_mac_addr.sh b0:67:2f:29:2c:af</t>
-  </si>
-  <si>
-    <t>./set_wlan0_mac_addr.sh   XXXXXXXXXXXX</t>
-  </si>
-  <si>
-    <t>./set_wlan1_mac_addr.sh   XXXXXXXXXXXX</t>
-  </si>
-  <si>
-    <t>./set_wlan2_mac_addr.sh   XXXXXXXXXXXX</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_wlan0_mac_addr.sh b0672f292cac</t>
-  </si>
-  <si>
-    <t>set Wlan0 Mac address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A  </t>
-  </si>
-  <si>
-    <t>./set_fp_part.sh &lt;FP part name&gt;</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_fp_part.sh  FP-1204</t>
-  </si>
-  <si>
-    <t>./set_gpio.sh &lt;gpio name&gt;  &lt;value&gt;</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_gpio.sh  pa-mute  1</t>
-  </si>
-  <si>
-    <t>directly set GPIO, avilable GPIO define at gpio.conf</t>
-  </si>
-  <si>
-    <t>./set_led.sh &lt;led name&gt;  &lt;R&gt; &lt;G&gt; &lt;B&gt;</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_led.sh led-foot1  5 5 0</t>
-  </si>
-  <si>
-    <t>set LED by RGB brightness, avilable LED define at led.conf</t>
-  </si>
-  <si>
-    <t>./set_master_source.sh &lt;source name&gt;</t>
-  </si>
-  <si>
-    <t>./set_model.sh &lt;model name&gt;</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_master_source.sh soc</t>
-  </si>
-  <si>
-    <t>N/A   (soc /local/spdif) no function for DSP2.1</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_model.sh L-ZEP</t>
-  </si>
-  <si>
-    <t>./set_unused1.sh  XX:XX:XX:XX:XX:XX</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_unused0.sh b0:67:2f:29:2c:ad</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_unused1.sh b0:67:2f:29:2c:ad</t>
-  </si>
-  <si>
-    <t>./set_unused0.sh  XX:XX:XX:XX:XX:XX</t>
-  </si>
-  <si>
-    <t>./set_volume.sh &lt;volume step&gt;</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/set_volume.sh  2</t>
-  </si>
-  <si>
-    <t>set volume, volume step depand on volumen.conf</t>
-  </si>
-  <si>
-    <t>close spdif pipe play</t>
-  </si>
-  <si>
-    <t>spdif pipe play on</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/spdif_off.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/WF_enable.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/WF_mute.sh</t>
-  </si>
-  <si>
-    <t>Woofer enable</t>
-  </si>
-  <si>
-    <t>Woofer mute</t>
-  </si>
-  <si>
-    <t>check_audio_ready.sh</t>
-  </si>
-  <si>
-    <t>./mic_record.sh  &lt;record time in seconds&gt;</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/mic_record.sh   4</t>
-  </si>
-  <si>
-    <t>./check_audio_ready.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/check_audio_ready.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>set assembly NO. (Set SN) (storage into/data/product/zepp.txt)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(storage into/data/product/zepp.txt)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_shutdown.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./set_shutdown</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>device shutdown</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_mute_toggle.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./set_mute_toggle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mute_toggle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>check audio serve and exit when it ready.</t>
-  </si>
-  <si>
-    <t>en_ftm.sh</t>
-  </si>
-  <si>
-    <t>enter Wifi/BT ftm mode</t>
-  </si>
-  <si>
-    <t>exit Wifi/BT ftm mode</t>
-  </si>
-  <si>
-    <t>dis_ftm.sh</t>
-  </si>
-  <si>
-    <t>./dis_ftm.sh</t>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/zepp/dis_ftm.sh</t>
-  </si>
-  <si>
-    <t>adb shell nohup "/etc/factory-test/zepp/spdif_on.sh &gt; /dev/null" &amp;</t>
-  </si>
-  <si>
-    <t>nohup "./en_ftm.sh &gt; /dev/null" &amp;</t>
-  </si>
-  <si>
-    <t>nohup "./spdif_on.sh &gt; /dev/null" &amp;</t>
-  </si>
-  <si>
-    <t>adb shell nohup "/etc/factory-test/zepp/en_ftm.sh &gt; /dev/null" &amp;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_shutdown.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/zepp/set_mute_toggle.sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -994,8 +954,15 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1037,7 +1004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1068,6 +1035,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1128,7 +1097,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1160,10 +1129,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1195,7 +1163,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1371,23 +1338,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="69.5703125" customWidth="1"/>
-    <col min="5" max="5" width="54.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="45.375" customWidth="1"/>
+    <col min="4" max="4" width="69.625" customWidth="1"/>
+    <col min="5" max="5" width="64.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1413,7 +1380,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1424,7 +1391,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1433,7 +1400,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1444,7 +1411,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1461,7 +1428,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1478,7 +1445,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1492,7 +1459,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="27">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1509,7 +1476,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1526,7 +1493,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1543,7 +1510,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1560,7 +1527,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1577,8 +1544,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:5">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1594,41 +1561,41 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:5" ht="27">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="14" t="s">
         <v>114</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>116</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1645,8 +1612,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:5">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -1662,24 +1629,24 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:5">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="14" t="s">
         <v>119</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1696,58 +1663,58 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:5">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="14" t="s">
         <v>122</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>123</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>134</v>
+      <c r="D23" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1758,13 +1725,13 @@
         <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1775,13 +1742,13 @@
         <v>79</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1792,65 +1759,61 @@
         <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="27">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>145</v>
+      <c r="D29" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -1860,47 +1823,43 @@
         <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1911,13 +1870,13 @@
         <v>87</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1928,13 +1887,13 @@
         <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1945,13 +1904,13 @@
         <v>89</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1962,13 +1921,13 @@
         <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1979,13 +1938,13 @@
         <v>91</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1996,13 +1955,13 @@
         <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2013,13 +1972,13 @@
         <v>93</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2030,13 +1989,13 @@
         <v>94</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2047,13 +2006,13 @@
         <v>95</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2064,13 +2023,13 @@
         <v>96</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2081,13 +2040,13 @@
         <v>97</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2095,16 +2054,16 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="27">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2112,16 +2071,16 @@
         <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2129,16 +2088,16 @@
         <v>48</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2146,16 +2105,16 @@
         <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2163,16 +2122,16 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2180,16 +2139,16 @@
         <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2197,16 +2156,16 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D50" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2214,16 +2173,16 @@
         <v>53</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2231,458 +2190,483 @@
         <v>54</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+    <row r="53" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A53" s="10">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="10">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>196</v>
+      <c r="C54" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" t="s">
+        <v>189</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="10">
         <v>54</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>198</v>
+      <c r="C55" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="10">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D56" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="10">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>222</v>
+      <c r="B58" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" t="s">
+        <v>215</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="10">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C60" t="s">
+        <v>223</v>
+      </c>
+      <c r="D60" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="10">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D60" t="s">
-        <v>230</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C62" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D62" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D64" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="10">
         <v>64</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="B65" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="10">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="B66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" t="s">
+        <v>247</v>
+      </c>
+      <c r="D66" t="s">
+        <v>245</v>
+      </c>
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="10">
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C68" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D68" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="10">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="10">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>237</v>
+      <c r="B70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" t="s">
+        <v>227</v>
+      </c>
+      <c r="D70" t="s">
+        <v>229</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+    <row r="71" spans="1:5">
+      <c r="A71" s="10">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>237</v>
+      <c r="B71" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:5">
+      <c r="A72" s="10">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>217</v>
-      </c>
-      <c r="C72" t="s">
-        <v>225</v>
-      </c>
-      <c r="D72" t="s">
-        <v>262</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="B72" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="10">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>279</v>
+        <v>285</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C74" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D74" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>264</v>
+        <v>211</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" t="s">
+        <v>254</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>275</v>
+      <c r="B78" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
